--- a/Parametricas/Programas_Cohortes.xlsx
+++ b/Parametricas/Programas_Cohortes.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1wT-pRaNOECz6KC5hndveeLOIGY381o4T\Alteryx\Proyectos\74. Cohortes\02.Parametros\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\practicante_pyc2_c\Documents\Code\Validacion_informacion_COHORTES\Parametricas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>CANCER</t>
   </si>
@@ -32,12 +32,6 @@
     <t>HTA</t>
   </si>
   <si>
-    <t>Gestantes</t>
-  </si>
-  <si>
-    <t>Falla_Cardiaca</t>
-  </si>
-  <si>
     <t>TRASPLANTE MEMBRANA AMNIÓTICA/ ESCLERA</t>
   </si>
   <si>
@@ -47,15 +41,6 @@
     <t>TRASPLANTE PULMONAR</t>
   </si>
   <si>
-    <t>Artritis Reumatoide</t>
-  </si>
-  <si>
-    <t>TRASPLANTE  MEMBRANA AMNIOTICA</t>
-  </si>
-  <si>
-    <t>TRASPLANTE  RENAL- PANCREAS</t>
-  </si>
-  <si>
     <t>TRASPLANTE MÉDULA ÓSEA</t>
   </si>
   <si>
@@ -77,12 +62,6 @@
     <t>TUBERCULOSIS</t>
   </si>
   <si>
-    <t>TRASPLANTE RENAL- PANCREAS</t>
-  </si>
-  <si>
-    <t>TRASPLANTE  PULMONAR</t>
-  </si>
-  <si>
     <t>FALLA CARDIACA</t>
   </si>
   <si>
@@ -104,12 +83,6 @@
     <t>CRONICO COMPLEJO</t>
   </si>
   <si>
-    <t>TRASPLANTE HEPÁTICO - PANCREAS</t>
-  </si>
-  <si>
-    <t>TRASPLANTE  HEPATICO-RENAL</t>
-  </si>
-  <si>
     <t>TRASPLANTE  MEMBRANA AMNIOTICA/ ESCLERA</t>
   </si>
   <si>
@@ -122,15 +95,6 @@
     <t>ASMA</t>
   </si>
   <si>
-    <t>HEPATITIS_C</t>
-  </si>
-  <si>
-    <t>TRASPLANTE  RENAL</t>
-  </si>
-  <si>
-    <t>TRASPLANTE HEPÁTICO - RENAL</t>
-  </si>
-  <si>
     <t>GESTANTES</t>
   </si>
   <si>
@@ -143,53 +107,50 @@
     <t>EPOC</t>
   </si>
   <si>
+    <t>TRASPLANTE  ESCLERA</t>
+  </si>
+  <si>
+    <t>TRASPLANTE CENTRO ORIENTE</t>
+  </si>
+  <si>
+    <t>VIH</t>
+  </si>
+  <si>
+    <t>APNEA</t>
+  </si>
+  <si>
+    <t>TRASPLANTE  MEDULA OSEA</t>
+  </si>
+  <si>
+    <t>PROGRAMAS</t>
+  </si>
+  <si>
+    <t>HEPATITIS C</t>
+  </si>
+  <si>
+    <t>TRASPLANTE RENAL PANCREAS</t>
+  </si>
+  <si>
+    <t>TRASPLANTE HEPÁTICO  PANCREAS</t>
+  </si>
+  <si>
+    <t>TRASPLANTE  HEPATICO RENAL</t>
+  </si>
+  <si>
+    <t>VHC</t>
+  </si>
+  <si>
     <t>TRASPLANTE RENAL</t>
   </si>
   <si>
-    <t>TRASPLANTE HEPATICO</t>
-  </si>
-  <si>
     <t>TRASPLANTE MEMBRANA AMNIOTICA</t>
-  </si>
-  <si>
-    <t>TRASPLANTE HEPATICO-RENAL</t>
-  </si>
-  <si>
-    <t>TRASPLANTE MEMBRANA AMNIOTICA/ ESCLERA</t>
-  </si>
-  <si>
-    <t>TRASPLANTE  ESCLERA</t>
-  </si>
-  <si>
-    <t>TRASPLANTE HEPÁTICO</t>
-  </si>
-  <si>
-    <t>TRASPLANTE CENTRO ORIENTE</t>
-  </si>
-  <si>
-    <t>TRASPLANTE HÉPATICO</t>
-  </si>
-  <si>
-    <t>VIH</t>
-  </si>
-  <si>
-    <t>APNEA</t>
-  </si>
-  <si>
-    <t>TRASPLANTE ESCLERA</t>
-  </si>
-  <si>
-    <t>TRASPLANTE  MEDULA OSEA</t>
-  </si>
-  <si>
-    <t>PROGRAMAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +161,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,12 +200,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Buena" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -515,223 +485,244 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="64.109375" customWidth="1"/>
+    <col min="1" max="1" width="64.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
         <v>29</v>
       </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Parametricas/Programas_Cohortes.xlsx
+++ b/Parametricas/Programas_Cohortes.xlsx
@@ -1,30 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\practicante_pyc2_c\Documents\Code\Validacion_informacion_COHORTES\Parametricas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19b938b8fe3c6497/Documents/TrabajoKeralty/Code/Validacion_informacion_COHORTES/Parametricas/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_C348D7D4CFEA1A8427779FCAE84EE74985B8D717" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E3F56E8-EAC7-4625-BF6C-A504F2E20A6A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+  <si>
+    <t>PROGRAMAS</t>
+  </si>
   <si>
     <t>CANCER</t>
   </si>
@@ -32,7 +31,10 @@
     <t>HTA</t>
   </si>
   <si>
-    <t>TRASPLANTE MEMBRANA AMNIÓTICA/ ESCLERA</t>
+    <t>GESTANTES</t>
+  </si>
+  <si>
+    <t>TRASPLANTE  MEDULA OSEA</t>
   </si>
   <si>
     <t>ERC</t>
@@ -41,15 +43,18 @@
     <t>TRASPLANTE PULMONAR</t>
   </si>
   <si>
-    <t>TRASPLANTE MÉDULA ÓSEA</t>
+    <t>ARTRITIS REUMATOIDE</t>
+  </si>
+  <si>
+    <t>TRASPLANTE MEMBRANA AMNIOTICA</t>
+  </si>
+  <si>
+    <t>TRASPLANTE RENAL PANCREAS</t>
   </si>
   <si>
     <t>DIALISIS</t>
   </si>
   <si>
-    <t>ARTRITIS REUMATOIDE</t>
-  </si>
-  <si>
     <t>COAGULOPATIAS</t>
   </si>
   <si>
@@ -62,6 +67,9 @@
     <t>TUBERCULOSIS</t>
   </si>
   <si>
+    <t>TRASPLANTE CARDIACO</t>
+  </si>
+  <si>
     <t>FALLA CARDIACA</t>
   </si>
   <si>
@@ -74,15 +82,15 @@
     <t>CUIDADOS PALIATIVOS</t>
   </si>
   <si>
-    <t>TRASPLANTE CARDIACO</t>
-  </si>
-  <si>
     <t>TRASPLANTE MEDULA OSEA</t>
   </si>
   <si>
     <t>CRONICO COMPLEJO</t>
   </si>
   <si>
+    <t>TRASPLANTE  HEPATICO RENAL</t>
+  </si>
+  <si>
     <t>TRASPLANTE  MEMBRANA AMNIOTICA/ ESCLERA</t>
   </si>
   <si>
@@ -95,7 +103,10 @@
     <t>ASMA</t>
   </si>
   <si>
-    <t>GESTANTES</t>
+    <t>HEPATITIS C</t>
+  </si>
+  <si>
+    <t>TRASPLANTE RENAL</t>
   </si>
   <si>
     <t>LISTA DE ESPERA TRASPLANTES</t>
@@ -107,7 +118,7 @@
     <t>EPOC</t>
   </si>
   <si>
-    <t>TRASPLANTE  ESCLERA</t>
+    <t>TRASPLANTE ESCLERA</t>
   </si>
   <si>
     <t>TRASPLANTE CENTRO ORIENTE</t>
@@ -119,38 +130,20 @@
     <t>APNEA</t>
   </si>
   <si>
-    <t>TRASPLANTE  MEDULA OSEA</t>
-  </si>
-  <si>
-    <t>PROGRAMAS</t>
-  </si>
-  <si>
-    <t>HEPATITIS C</t>
-  </si>
-  <si>
-    <t>TRASPLANTE RENAL PANCREAS</t>
-  </si>
-  <si>
-    <t>TRASPLANTE HEPÁTICO  PANCREAS</t>
-  </si>
-  <si>
-    <t>TRASPLANTE  HEPATICO RENAL</t>
-  </si>
-  <si>
     <t>VHC</t>
   </si>
   <si>
-    <t>TRASPLANTE RENAL</t>
-  </si>
-  <si>
-    <t>TRASPLANTE MEMBRANA AMNIOTICA</t>
+    <t>TRASPLANTE MEMBRANA AMNIOTICA/ ESCLERA</t>
+  </si>
+  <si>
+    <t>TRASPLANTE HEPATICO  PANCREAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,15 +156,19 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -187,7 +184,29 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -196,21 +215,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Buena" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -223,7 +247,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -257,20 +281,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -300,12 +324,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -344,385 +368,415 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.08984375" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="44" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="45" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>37</v>
-      </c>
+    <row r="46" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>